--- a/Documentos/EsquemaInicialBD.xlsx
+++ b/Documentos/EsquemaInicialBD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Persona</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>IdRubroEmpresa</t>
+  </si>
+  <si>
+    <t>IdREQPERFIL</t>
+  </si>
+  <si>
+    <t>FuncionesRQ</t>
+  </si>
+  <si>
+    <t>IDFUNCINESRQ</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -620,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -631,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
         <v>14</v>
@@ -641,6 +650,9 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
@@ -672,6 +684,16 @@
       </c>
       <c r="G22" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
